--- a/uploads/leave.xlsx
+++ b/uploads/leave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aashish Kaushik\leave mail sender\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aashish Kaushik\leave mail sender\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,13 +410,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/uploads/leave.xlsx
+++ b/uploads/leave.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>aashish@ashmar.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aanand </t>
+  </si>
+  <si>
+    <t>anand@monetnetworks.com</t>
   </si>
 </sst>
 </file>
@@ -376,7 +382,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,9 +421,23 @@
       <c r="D2">
         <v>3</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
